--- a/source/Services List.xlsx
+++ b/source/Services List.xlsx
@@ -438,9 +438,6 @@
     <t>Transmission Fluid Service</t>
   </si>
   <si>
-    <t>MISCELLANEOUS SERVICES</t>
-  </si>
-  <si>
     <t>Windshield Replacement</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
   </si>
   <si>
     <t>Headlight Refinishing</t>
+  </si>
+  <si>
+    <t>MISSELLANEOUS SERVICES</t>
   </si>
 </sst>
 </file>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,7 +804,7 @@
     <col min="12" max="12" width="56.140625" customWidth="1"/>
     <col min="13" max="13" width="23.7109375" customWidth="1"/>
     <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -847,6 +847,12 @@
       <c r="M1" t="s">
         <v>121</v>
       </c>
+      <c r="N1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -889,7 +895,10 @@
         <v>122</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="O2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -933,7 +942,10 @@
         <v>123</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="O3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -968,7 +980,10 @@
         <v>124</v>
       </c>
       <c r="N4" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="O4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1003,7 +1018,10 @@
         <v>125</v>
       </c>
       <c r="N5" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="O5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1034,8 +1052,11 @@
       <c r="L6" t="s">
         <v>106</v>
       </c>
+      <c r="M6" t="s">
+        <v>128</v>
+      </c>
       <c r="N6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1070,10 +1091,7 @@
         <v>126</v>
       </c>
       <c r="N7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1108,10 +1126,7 @@
         <v>127</v>
       </c>
       <c r="N8" t="s">
-        <v>135</v>
-      </c>
-      <c r="O8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1142,14 +1157,8 @@
       <c r="L9" t="s">
         <v>109</v>
       </c>
-      <c r="M9" t="s">
-        <v>128</v>
-      </c>
       <c r="N9" t="s">
-        <v>136</v>
-      </c>
-      <c r="O9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1181,10 +1190,7 @@
         <v>110</v>
       </c>
       <c r="N10" t="s">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1207,10 +1213,7 @@
         <v>111</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
-      </c>
-      <c r="O11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1225,9 +1228,6 @@
       </c>
       <c r="L12" t="s">
         <v>112</v>
-      </c>
-      <c r="N12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:15">
